--- a/myapp/files/9_MethodComparePercent/Scenario 306.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 306.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7340</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.50537854938113</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.56862745098039</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2871</v>
+        <v>16018</v>
       </c>
       <c r="F3" t="n">
-        <v>3.70575935152438</v>
+        <v>3.28517079073392</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.13725490196078</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>6804</v>
+        <v>24199</v>
       </c>
       <c r="F4" t="n">
-        <v>8.78230115909854</v>
+        <v>4.96303208671309</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -669,10 +669,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>5.09803921568627</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>7548</v>
+        <v>29343</v>
       </c>
       <c r="F5" t="n">
-        <v>9.74262333169838</v>
+        <v>6.0180276259524</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -707,16 +707,16 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>7.84313725490196</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>4.47761194029851</v>
+        <v>5.97014925373134</v>
       </c>
     </row>
     <row r="6">
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>12417</v>
+        <v>30839</v>
       </c>
       <c r="F6" t="n">
-        <v>16.0273123886723</v>
+        <v>6.32484592430038</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -745,10 +745,10 @@
         <v>5.97014925373134</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>7.45098039215686</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>10128</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.07717628721146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.35294117647059</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>160</v>
+        <v>28853</v>
       </c>
       <c r="F8" t="n">
-        <v>0.206520897333299</v>
+        <v>5.91753232769671</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>4.70588235294118</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>420</v>
+        <v>33257</v>
       </c>
       <c r="F9" t="n">
-        <v>0.54211735549991</v>
+        <v>6.82075945732539</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>7.05882352941176</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>4206</v>
+        <v>41623</v>
       </c>
       <c r="F10" t="n">
-        <v>5.4289180886491</v>
+        <v>8.53656285570721</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
@@ -897,16 +897,16 @@
         <v>10.4477611940299</v>
       </c>
       <c r="I10" t="n">
+        <v>26</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.1960784313725</v>
+      </c>
+      <c r="K10" t="n">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
-        <v>8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5</v>
-      </c>
       <c r="L10" t="n">
-        <v>7.46268656716418</v>
+        <v>5.97014925373134</v>
       </c>
     </row>
     <row r="11">
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>9682</v>
+        <v>61247</v>
       </c>
       <c r="F11" t="n">
-        <v>12.4970957998813</v>
+        <v>12.5612970046248</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -935,10 +935,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>10.9803921568627</v>
       </c>
       <c r="K11" t="n">
         <v>11</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5155</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.05725155613893</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.56862745098039</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>250</v>
+        <v>25260</v>
       </c>
       <c r="F13" t="n">
-        <v>0.32268890208328</v>
+        <v>5.18063517130347</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>4.31372549019608</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>6025</v>
+        <v>31249</v>
       </c>
       <c r="F14" t="n">
-        <v>7.77680254020704</v>
+        <v>6.40893382692249</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>8.95522388059702</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>11655</v>
+        <v>26369</v>
       </c>
       <c r="F15" t="n">
-        <v>15.0437566151225</v>
+        <v>5.40808269327399</v>
       </c>
       <c r="G15" t="n">
         <v>13</v>
@@ -1087,16 +1087,16 @@
         <v>19.4029850746269</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>5.09803921568627</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>5.97014925373134</v>
+        <v>7.46268656716418</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6996</v>
+        <v>34023</v>
       </c>
       <c r="F16" t="n">
-        <v>9.03012623589849</v>
+        <v>6.97786027051694</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -1125,16 +1125,16 @@
         <v>8.95522388059702</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
+        <v>7.05882352941176</v>
+      </c>
+      <c r="K16" t="n">
         <v>10</v>
       </c>
-      <c r="K16" t="n">
-        <v>11</v>
-      </c>
       <c r="L16" t="n">
-        <v>16.4179104477612</v>
+        <v>14.9253731343284</v>
       </c>
     </row>
     <row r="17">
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7526</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.54352574422921</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.784313725490196</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>12387</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.54048012141473</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8998</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.84542182388712</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -1239,10 +1239,10 @@
         <v>4.47761194029851</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.56862745098039</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1612</v>
+        <v>11836</v>
       </c>
       <c r="F20" t="n">
-        <v>2.08069804063299</v>
+        <v>2.42747418398843</v>
       </c>
       <c r="G20" t="n">
         <v>8</v>
@@ -1277,10 +1277,10 @@
         <v>11.9402985074627</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>2.35294117647059</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>1395</v>
+        <v>10904</v>
       </c>
       <c r="F21" t="n">
-        <v>1.8006040736247</v>
+        <v>2.2363280248572</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>2.74509803921569</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>621</v>
+        <v>2875</v>
       </c>
       <c r="F22" t="n">
-        <v>0.801559232774866</v>
+        <v>0.589640780581847</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0.784313725490196</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>729</v>
+        <v>4455</v>
       </c>
       <c r="F23" t="n">
-        <v>0.940960838474843</v>
+        <v>0.913686844345089</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0.784313725490196</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>729</v>
+        <v>4602</v>
       </c>
       <c r="F24" t="n">
-        <v>0.940960838474843</v>
+        <v>0.943835433821795</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1.17647058823529</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1709</v>
+        <v>9404</v>
       </c>
       <c r="F25" t="n">
-        <v>2.2059013346413</v>
+        <v>1.92868935672754</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>1.56862745098039</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>1645</v>
+        <v>9695</v>
       </c>
       <c r="F26" t="n">
-        <v>2.12329297570798</v>
+        <v>1.9883712583447</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
